--- a/rider/weekly/2016_50.xlsx
+++ b/rider/weekly/2016_50.xlsx
@@ -195,25 +195,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>282</c:v>
+                  <c:v>289</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>182</c:v>
+                  <c:v>217</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>212</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>274</c:v>
+                  <c:v>241</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>299</c:v>
+                  <c:v>332</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>173</c:v>
+                  <c:v>181</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>147</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -271,25 +271,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>261.86</c:v>
+                  <c:v>267.57</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>224</c:v>
+                  <c:v>228.86</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>207.57</c:v>
+                  <c:v>197.14</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>235</c:v>
+                  <c:v>228.83</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>220.57</c:v>
+                  <c:v>228.29</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>132.38</c:v>
+                  <c:v>132.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>107.75</c:v>
+                  <c:v>105.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -810,10 +810,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="D2">
-        <v>261.86</v>
+        <v>267.57</v>
       </c>
       <c r="E2">
         <v>95.12</v>
@@ -827,10 +827,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="D3">
-        <v>224</v>
+        <v>228.86</v>
       </c>
       <c r="E3">
         <v>95.28</v>
@@ -844,10 +844,10 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="D4">
-        <v>207.57</v>
+        <v>197.14</v>
       </c>
       <c r="E4">
         <v>95.44</v>
@@ -861,10 +861,10 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>274</v>
+        <v>241</v>
       </c>
       <c r="D5">
-        <v>235</v>
+        <v>228.83</v>
       </c>
       <c r="E5">
         <v>95.59999999999999</v>
@@ -878,10 +878,10 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="D6">
-        <v>220.57</v>
+        <v>228.29</v>
       </c>
       <c r="E6">
         <v>95.76000000000001</v>
@@ -895,10 +895,10 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="D7">
-        <v>132.38</v>
+        <v>132.5</v>
       </c>
       <c r="E7">
         <v>95.93000000000001</v>
@@ -912,10 +912,10 @@
         <v>18</v>
       </c>
       <c r="C8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D8">
-        <v>107.75</v>
+        <v>105.5</v>
       </c>
       <c r="E8">
         <v>96.09</v>
